--- a/20-Tensorflow/06-NLP/RNN-Archittecture.xlsx
+++ b/20-Tensorflow/06-NLP/RNN-Archittecture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\rkumar-bengaluru\data-science\20-Tensorflow\06-NLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023\data-science\20-Tensorflow\06-NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41519EA-9987-4AC2-8429-FBE9A8F87A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F9788-39B2-40AC-9FCF-62A0C61673F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6BCE35C8-B926-4218-BD6D-92FB507E0FE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BCE35C8-B926-4218-BD6D-92FB507E0FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,13 +254,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,17 +593,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,18 +614,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -561,91 +636,91 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
